--- a/biology/Médecine/Abrasion_(médecine)/Abrasion_(médecine).xlsx
+++ b/biology/Médecine/Abrasion_(médecine)/Abrasion_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abrasion_(m%C3%A9decine)</t>
+          <t>Abrasion_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, on parle d'abrasion (du latin : abrasio, de abradere, « ôter en grattant, en raclant ») pour l'enlèvement, ablation ou prélèvement par raclage, frottement ou grattement superficiel de certains tissus, saillies, tumeurs ou formations de surface normale ou anormale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abrasion_(m%C3%A9decine)</t>
+          <t>Abrasion_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Abrasion à visée diagnostique ou thérapeutique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">abrasion cutanée : abrasion (lésion) ou dermabrasion ;le terme abrasion est plutôt usité pour les lésions de cause traumatique (chute, accident...), tandis que celui d'érosion est généralement usité pour les pertes de substance cutanée causées par une maladie...
 abrasion dentaire :
